--- a/biology/Microbiologie/Oligohymenophorea/Oligohymenophorea.xlsx
+++ b/biology/Microbiologie/Oligohymenophorea/Oligohymenophorea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Oligohymenophorea sont une classe de protistes de l'embranchement des Ciliés (Ciliophora).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Oligohymenophorea se caractérisent typiquement par une gorge ventrale contenant la bouche et des cils oraux distincts de ceux du reste du corps. Ils incluent une membrane parorale à la droite de la bouche et généralement trois membranelles à sa gauche. Le cytopharynx est discret et ne forme jamais de cyrtos complexes contrairement à ce qui se voit dans les autres classes.
 Les membres de cette classe sont largement répandus et incluent de nombreuses formes libres (principalement d'eau douce mais aussi marines) et des formes symbiotiques. La plupart sont microphages, se nourrissant d'organismes plus petits entraînés dans la bouche par les cils, mais d'autres façon de se nourrir existent. Dans le groupe des astomes, la bouche et ses structures nourricières ont disparu.
@@ -543,9 +557,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (29 juillet 2023)[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (29 juillet 2023)
 Astomatida
 Hymenostomatida
 Peniculida
@@ -553,7 +569,7 @@
 Philasterida
 Pleuronematida
 Scuticociliatida
-Selon le World Register of Marine Species                               (30 septembre 2023)[2] :
+Selon le World Register of Marine Species                               (30 septembre 2023) :
 sous-classe des Apostomatia Chatton &amp; Lwoff, 1928
 Apostomatida
 Astomatophorida
@@ -608,9 +624,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Oligohymenophorea Puytorac et al., 1974[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Oligohymenophorea Puytorac et al., 1974.
 </t>
         </is>
       </c>
@@ -639,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Puytorac, P. de, A. Batisse, J. Bohatier, J.O. Corliss, G. Deroux, P. Didier, J. Dragesco, G. Fryd-Versavel, J. Grain, C.-A. Grolière, R. Hovasse, F. Iftode, M. Laval, M. Rogue, A. Savoie et M. Tuffrau, « Proposition d'une classification du phylum Ciliophora Doflein, 1901 », Comptes Rendus de l'Académie des Sciences, Paris, vol. 278,‎ 1974, p. 2799-2802.</t>
         </is>
